--- a/ExcelBot.Runtime/strategy.xlsx
+++ b/ExcelBot.Runtime/strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\prive\infinibattle-2023-excel-bot\ExcelBot.Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AFEC48-B7FC-4642-9D44-2FEBB333CC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5C237-56B5-466D-8A24-AE1F865B6ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{384E99EF-41B3-4078-AF7F-40BB6BDCDBD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{384E99EF-41B3-4078-AF7F-40BB6BDCDBD9}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelStrategie" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Flag</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Miner</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Marshal</t>
@@ -222,7 +219,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCECFF"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,9 +272,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,6 +282,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +671,7 @@
   <dimension ref="B2:AV36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="AT26" sqref="AT26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,62 +686,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:48" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="M2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="X2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AI2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AT2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AI2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="AV2" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,14 +865,14 @@
       <c r="AR3" s="3">
         <v>0</v>
       </c>
-      <c r="AT3" s="6">
+      <c r="AT3" s="5">
         <v>25</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1003,10 +1000,10 @@
         <v>95</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1134,10 +1131,10 @@
         <v>20</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1265,176 +1262,112 @@
         <v>98</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
-      <c r="AK7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AT7" s="2">
         <v>5</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-      <c r="AK8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AT8" s="2">
         <v>75</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1606,54 +1539,54 @@
       <c r="AR12" s="3"/>
     </row>
     <row r="14" spans="2:48" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="M14" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="X14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AI14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="X14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AI14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
     </row>
     <row r="15" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2146,148 +2079,84 @@
     <row r="19" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP19" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
     </row>
     <row r="20" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP20" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
     </row>
@@ -2460,61 +2329,61 @@
       <c r="AR24" s="3"/>
     </row>
     <row r="26" spans="2:44" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="X26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AI26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="M26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="X26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AI26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
     </row>
     <row r="27" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2557,10 +2426,10 @@
     </row>
     <row r="28" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2603,10 +2472,10 @@
     </row>
     <row r="29" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2649,10 +2518,10 @@
     </row>
     <row r="30" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2664,28 +2533,28 @@
       <c r="K30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="V30" s="3"/>
       <c r="X30" s="3"/>
@@ -2712,148 +2581,84 @@
     <row r="31" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP31" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
     </row>
     <row r="32" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP32" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
     </row>

--- a/ExcelBot.Runtime/strategy.xlsx
+++ b/ExcelBot.Runtime/strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\prive\infinibattle-2023-excel-bot\ExcelBot.Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F5C237-56B5-466D-8A24-AE1F865B6ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1627640D-D696-4AE4-8482-697B489BBE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{384E99EF-41B3-4078-AF7F-40BB6BDCDBD9}"/>
   </bookViews>
@@ -60,21 +60,6 @@
     <t>Beschrijving</t>
   </si>
   <si>
-    <t>Clustering</t>
-  </si>
-  <si>
-    <t>BombFlagCombo</t>
-  </si>
-  <si>
-    <t>Secrecy</t>
-  </si>
-  <si>
-    <t>AgressivenessFactor</t>
-  </si>
-  <si>
-    <t>ReconnaissanceFactor</t>
-  </si>
-  <si>
     <t>Startpositie: hoe sterk de stukken in een cluster (vs. meer verspreid) starten.</t>
   </si>
   <si>
@@ -82,6 +67,45 @@
   </si>
   <si>
     <t>Actie: mate dat de bot geheim probeert te houden welke stukken kunnen bewegen.</t>
+  </si>
+  <si>
+    <t>Fixed Start 1</t>
+  </si>
+  <si>
+    <t>Fixed Start 4</t>
+  </si>
+  <si>
+    <t>Fixed Start 3</t>
+  </si>
+  <si>
+    <t>Fixed Start 2</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Gebruik Fixed Start</t>
+  </si>
+  <si>
+    <t>Percentage kans dat een fixed startpositie (onderaan de sheet) gebruikt zal worden.</t>
   </si>
   <si>
     <r>
@@ -91,7 +115,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -101,7 +125,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -117,7 +141,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -127,7 +151,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -136,59 +160,27 @@
     </r>
   </si>
   <si>
-    <t>Startpositie: percentage kans dat een fixed startpositie gekozen wordt.</t>
-  </si>
-  <si>
-    <t>FixedStartPosition</t>
-  </si>
-  <si>
-    <t>Fixed Start 1</t>
-  </si>
-  <si>
-    <t>Fixed Start 4</t>
-  </si>
-  <si>
-    <t>Fixed Start 3</t>
-  </si>
-  <si>
-    <t>Fixed Start 2</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>SC</t>
+    <t>Clustering TODO</t>
+  </si>
+  <si>
+    <t>BombFlagCombo TODO</t>
+  </si>
+  <si>
+    <t>Secrecy TODO</t>
+  </si>
+  <si>
+    <t>AgressivenessFactor TODO</t>
+  </si>
+  <si>
+    <t>ReconnaissanceFactor TODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,6 +191,21 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -271,21 +278,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +681,7 @@
   <dimension ref="B2:AV36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT26" sqref="AT26"/>
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,59 +691,59 @@
     <col min="24" max="33" width="4.28515625" style="2" customWidth="1"/>
     <col min="35" max="44" width="4.28515625" style="2" customWidth="1"/>
     <col min="46" max="46" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="81.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:48" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="X2" s="8" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AI2" s="8" t="s">
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AI2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
       <c r="AT2" s="7" t="s">
         <v>8</v>
       </c>
@@ -868,11 +878,11 @@
       <c r="AT3" s="5">
         <v>25</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AU3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV3" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -999,11 +1009,11 @@
       <c r="AT4" s="2">
         <v>95</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AU4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV4" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,113 +1271,113 @@
       <c r="AT6" s="2">
         <v>98</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AU6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV6" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AT7" s="2">
         <v>5</v>
       </c>
-      <c r="AU7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>19</v>
+      <c r="AU7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AT8" s="2">
         <v>75</v>
       </c>
-      <c r="AU8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>20</v>
+      <c r="AU8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,54 +1549,54 @@
       <c r="AR12" s="3"/>
     </row>
     <row r="14" spans="2:48" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="8" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="M14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="X14" s="8" t="s">
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="X14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AI14" s="8" t="s">
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AI14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
     </row>
     <row r="15" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2079,84 +2089,84 @@
     <row r="19" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="9"/>
-      <c r="AP19" s="9"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
     </row>
     <row r="20" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="9"/>
-      <c r="AP20" s="9"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
     </row>
@@ -2329,61 +2339,61 @@
       <c r="AR24" s="3"/>
     </row>
     <row r="26" spans="2:44" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="X26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AI26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
-      <c r="AR26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="M26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="X26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AI26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
     </row>
     <row r="27" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2426,10 +2436,10 @@
     </row>
     <row r="28" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2472,10 +2482,10 @@
     </row>
     <row r="29" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2518,10 +2528,10 @@
     </row>
     <row r="30" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2533,28 +2543,28 @@
       <c r="K30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="V30" s="3"/>
       <c r="X30" s="3"/>
@@ -2581,84 +2591,84 @@
     <row r="31" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="9"/>
-      <c r="AP31" s="9"/>
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
     </row>
     <row r="32" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="9"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
     </row>

--- a/ExcelBot.Runtime/strategy.xlsx
+++ b/ExcelBot.Runtime/strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\prive\infinibattle-2023-excel-bot\ExcelBot.Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10C263-2F7D-46B0-9749-50473BE7E0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DB7A88-84AF-4650-8B75-ADC8A10BB7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{384E99EF-41B3-4078-AF7F-40BB6BDCDBD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Flag</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Een "Boost" percentage (moet 0 of hoger zijn) voor hoe graag de scouts aan zet zijn</t>
+  </si>
+  <si>
+    <t>Dichterbij een potentiele flag</t>
+  </si>
+  <si>
+    <t>Aantal bonuspunten voor een zet waarmee je dichterbij een potentiele Flag komt</t>
   </si>
 </sst>
 </file>
@@ -318,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,23 +336,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,323 +358,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2D608"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF322500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEF8747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC50F0B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5B68F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2D608"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF322500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEF8747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC50F0B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5B68F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2D608"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF322500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEF8747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC50F0B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5B68F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2D608"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF322500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEF8747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC50F0B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5B68F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2D608"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF322500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEF8747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC50F0B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5B68F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2D608"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF322500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEF8747"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC50F0B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF5B68F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1054,7 +745,7 @@
   <dimension ref="B2:AV36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,67 +754,67 @@
     <col min="13" max="22" width="4.28515625" style="1" customWidth="1"/>
     <col min="24" max="33" width="4.28515625" style="1" customWidth="1"/>
     <col min="35" max="44" width="4.28515625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="92.140625" style="11" customWidth="1"/>
+    <col min="46" max="46" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="92.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="X2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AI2" s="5" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AI2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AT2" s="6" t="s">
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AT2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AU2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AV2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1248,13 +939,13 @@
       <c r="AR3" s="2">
         <v>0</v>
       </c>
-      <c r="AT3" s="8">
-        <v>50</v>
-      </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AT3" s="7">
+        <v>50</v>
+      </c>
+      <c r="AU3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AV3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1356,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2">
         <v>0</v>
@@ -1379,8 +1070,8 @@
       <c r="AR4" s="2">
         <v>0</v>
       </c>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
     </row>
     <row r="5" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -1480,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AL5" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AM5" s="2">
         <v>0</v>
@@ -1625,8 +1316,8 @@
       <c r="AR6" s="2">
         <v>0</v>
       </c>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
     </row>
     <row r="7" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -1669,8 +1360,8 @@
       <c r="AP7" s="4"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
     </row>
     <row r="8" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -1713,8 +1404,8 @@
       <c r="AP8" s="4"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
     </row>
     <row r="9" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -1885,61 +1576,61 @@
       <c r="AR12" s="2"/>
     </row>
     <row r="14" spans="2:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="5" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="M14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="5" t="s">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="X14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AI14" s="5" t="s">
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AI14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AT14" s="12" t="s">
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AT14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AU14" s="13" t="s">
+      <c r="AU14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AV14" s="13" t="s">
+      <c r="AV14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2064,13 +1755,13 @@
       <c r="AR15" s="2">
         <v>0</v>
       </c>
-      <c r="AT15" s="10">
+      <c r="AT15" s="7">
         <v>250</v>
       </c>
-      <c r="AU15" s="11" t="s">
+      <c r="AU15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AV15" s="11" t="s">
+      <c r="AV15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2112,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="P16" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -2142,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="2">
         <v>0</v>
@@ -2195,13 +1886,13 @@
       <c r="AR16" s="2">
         <v>0</v>
       </c>
-      <c r="AT16" s="10">
+      <c r="AT16" s="7">
         <v>-1000</v>
       </c>
-      <c r="AU16" s="11" t="s">
+      <c r="AU16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AV16" s="11" t="s">
+      <c r="AV16" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2213,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2243,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="P17" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -2303,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AL17" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM17" s="2">
         <v>0</v>
@@ -2326,13 +2017,13 @@
       <c r="AR17" s="2">
         <v>0</v>
       </c>
-      <c r="AT17" s="10">
+      <c r="AT17" s="7">
         <v>-250</v>
       </c>
-      <c r="AU17" s="11" t="s">
+      <c r="AU17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AV17" s="11" t="s">
+      <c r="AV17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2374,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -2434,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2">
         <v>0</v>
@@ -2457,13 +2148,13 @@
       <c r="AR18" s="2">
         <v>0</v>
       </c>
-      <c r="AT18" s="10">
-        <v>500</v>
-      </c>
-      <c r="AU18" s="11" t="s">
+      <c r="AT18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="AU18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV18" s="11" t="s">
+      <c r="AV18" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2508,13 +2199,13 @@
       <c r="AP19" s="4"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
-      <c r="AT19" s="10">
-        <v>50</v>
-      </c>
-      <c r="AU19" s="11" t="s">
+      <c r="AT19" s="7">
+        <v>50</v>
+      </c>
+      <c r="AU19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AV19" s="11" t="s">
+      <c r="AV19" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2559,13 +2250,13 @@
       <c r="AP20" s="4"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
-      <c r="AT20" s="10">
-        <v>100</v>
-      </c>
-      <c r="AU20" s="11" t="s">
+      <c r="AT20" s="7">
+        <v>100</v>
+      </c>
+      <c r="AU20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AV20" s="11" t="s">
+      <c r="AV20" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2610,6 +2301,15 @@
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
+      <c r="AT21" s="7">
+        <v>500</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV21" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -2736,72 +2436,72 @@
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
-      <c r="AT24" s="14">
+      <c r="AT24" s="12">
         <v>25</v>
       </c>
-      <c r="AU24" s="11" t="s">
+      <c r="AU24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AV24" s="11" t="s">
+      <c r="AV24" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="M26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="X26" s="5" t="s">
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="X26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AI26" s="5" t="s">
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AI26" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AT26" s="12" t="s">
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AT26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AU26" s="13" t="s">
+      <c r="AU26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AV26" s="13" t="s">
+      <c r="AV26" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2850,13 +2550,13 @@
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
-      <c r="AT27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="11" t="s">
+      <c r="AT27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AV27" s="11" t="s">
+      <c r="AV27" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2905,13 +2605,13 @@
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
-      <c r="AT28" s="10">
+      <c r="AT28" s="7">
         <v>5</v>
       </c>
-      <c r="AU28" s="11" t="s">
+      <c r="AU28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AV28" s="11" t="s">
+      <c r="AV28" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2960,13 +2660,13 @@
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
-      <c r="AT29" s="10">
+      <c r="AT29" s="7">
         <v>10</v>
       </c>
-      <c r="AU29" s="11" t="s">
+      <c r="AU29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AV29" s="11" t="s">
+      <c r="AV29" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3031,13 +2731,13 @@
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
-      <c r="AT30" s="10">
+      <c r="AT30" s="7">
         <v>15</v>
       </c>
-      <c r="AU30" s="11" t="s">
+      <c r="AU30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AV30" s="11" t="s">
+      <c r="AV30" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3082,13 +2782,13 @@
       <c r="AP31" s="4"/>
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
-      <c r="AT31" s="10">
+      <c r="AT31" s="7">
         <v>20</v>
       </c>
-      <c r="AU31" s="11" t="s">
+      <c r="AU31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AV31" s="11" t="s">
+      <c r="AV31" s="9" t="s">
         <v>42</v>
       </c>
     </row>

--- a/ExcelBot.Runtime/strategy.xlsx
+++ b/ExcelBot.Runtime/strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\prive\infinibattle-2023-excel-bot\ExcelBot.Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DB7A88-84AF-4650-8B75-ADC8A10BB7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93370583-749C-497B-91B7-BAA3A0F23324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{384E99EF-41B3-4078-AF7F-40BB6BDCDBD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Flag</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Aantal bonuspunten voor een zet waarmee je dichterbij een potentiele Flag komt</t>
+  </si>
+  <si>
+    <t>Scout-bonus voor vorige punt</t>
+  </si>
+  <si>
+    <t>Tellen "sprongen" van scouts naar potentiele flags extra zwaar (TRUE of FALSE)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +275,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,14 +376,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -422,6 +463,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFE5EAE0"/>
       <color rgb="FFF2D608"/>
       <color rgb="FF322500"/>
@@ -430,8 +473,6 @@
       <color rgb="FFF5B68F"/>
       <color rgb="FFF29E6A"/>
       <color rgb="FFF5B68B"/>
-      <color rgb="FFC50F0B"/>
-      <color rgb="FFC04108"/>
     </mruColors>
   </colors>
   <extLst>
@@ -742,97 +783,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE039DA3-4AB8-44E2-839E-924A5A2C703B}">
-  <dimension ref="B2:AV36"/>
+  <dimension ref="B2:AX38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
+      <selection activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="4.28515625" style="1" customWidth="1"/>
-    <col min="13" max="22" width="4.28515625" style="1" customWidth="1"/>
-    <col min="24" max="33" width="4.28515625" style="1" customWidth="1"/>
-    <col min="35" max="44" width="4.28515625" style="1" customWidth="1"/>
-    <col min="46" max="46" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="92.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="12" width="4.28515625" style="1" customWidth="1"/>
+    <col min="14" max="23" width="4.28515625" style="1" customWidth="1"/>
+    <col min="25" max="34" width="4.28515625" style="1" customWidth="1"/>
+    <col min="36" max="45" width="4.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="3.5703125" customWidth="1"/>
+    <col min="48" max="48" width="16" style="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="92.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="M2" s="13" t="s">
+    <row r="2" spans="2:50" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="13"/>
+      <c r="C2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="X2" s="13" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AI2" s="13" t="s">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AT2" s="5" t="s">
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="13"/>
+      <c r="AV2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
+    <row r="3" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -849,9 +895,10 @@
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="M3" s="2">
-        <v>10</v>
-      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14"/>
       <c r="N3" s="2">
         <v>10</v>
       </c>
@@ -879,9 +926,10 @@
       <c r="V3" s="2">
         <v>10</v>
       </c>
-      <c r="X3" s="2">
+      <c r="W3" s="2">
         <v>10</v>
       </c>
+      <c r="X3" s="14"/>
       <c r="Y3" s="2">
         <v>10</v>
       </c>
@@ -909,9 +957,10 @@
       <c r="AG3" s="2">
         <v>10</v>
       </c>
-      <c r="AI3" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="14"/>
       <c r="AJ3" s="2">
         <v>0</v>
       </c>
@@ -939,31 +988,33 @@
       <c r="AR3" s="2">
         <v>0</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="14"/>
+      <c r="AV3" s="7">
         <v>50</v>
       </c>
-      <c r="AU3" s="9" t="s">
+      <c r="AW3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AV3" s="9" t="s">
+      <c r="AX3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
+    <row r="4" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>25</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -980,9 +1031,10 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>25</v>
-      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14"/>
       <c r="N4" s="2">
         <v>25</v>
       </c>
@@ -1010,9 +1062,10 @@
       <c r="V4" s="2">
         <v>25</v>
       </c>
-      <c r="X4" s="2">
+      <c r="W4" s="2">
         <v>25</v>
       </c>
+      <c r="X4" s="14"/>
       <c r="Y4" s="2">
         <v>25</v>
       </c>
@@ -1040,9 +1093,10 @@
       <c r="AG4" s="2">
         <v>25</v>
       </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH4" s="2">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="14"/>
       <c r="AJ4" s="2">
         <v>0</v>
       </c>
@@ -1070,13 +1124,15 @@
       <c r="AR4" s="2">
         <v>0</v>
       </c>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-    </row>
-    <row r="5" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
+      <c r="AS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="14"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+    </row>
+    <row r="5" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
       <c r="C5" s="2">
         <v>0</v>
       </c>
@@ -1104,9 +1160,10 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>50</v>
-      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14"/>
       <c r="N5" s="2">
         <v>50</v>
       </c>
@@ -1134,9 +1191,10 @@
       <c r="V5" s="2">
         <v>50</v>
       </c>
-      <c r="X5" s="2">
+      <c r="W5" s="2">
         <v>50</v>
       </c>
+      <c r="X5" s="14"/>
       <c r="Y5" s="2">
         <v>50</v>
       </c>
@@ -1164,20 +1222,21 @@
       <c r="AG5" s="2">
         <v>50</v>
       </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH5" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="14"/>
       <c r="AJ5" s="2">
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="2">
         <v>50</v>
       </c>
       <c r="AM5" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN5" s="2">
         <v>0</v>
@@ -1194,11 +1253,13 @@
       <c r="AR5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
+      <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="14"/>
+    </row>
+    <row r="6" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
       <c r="C6" s="2">
         <v>0</v>
       </c>
@@ -1226,9 +1287,10 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="2">
-        <v>100</v>
-      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14"/>
       <c r="N6" s="2">
         <v>100</v>
       </c>
@@ -1256,9 +1318,10 @@
       <c r="V6" s="2">
         <v>100</v>
       </c>
-      <c r="X6" s="2">
+      <c r="W6" s="2">
         <v>100</v>
       </c>
+      <c r="X6" s="14"/>
       <c r="Y6" s="2">
         <v>100</v>
       </c>
@@ -1286,20 +1349,21 @@
       <c r="AG6" s="2">
         <v>100</v>
       </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH6" s="2">
+        <v>100</v>
+      </c>
+      <c r="AI6" s="14"/>
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="2">
         <v>100</v>
       </c>
       <c r="AM6" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN6" s="2">
         <v>0</v>
@@ -1316,99 +1380,113 @@
       <c r="AR6" s="2">
         <v>0</v>
       </c>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-    </row>
-    <row r="7" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="14"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+    </row>
+    <row r="7" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="4"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="4"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="4"/>
       <c r="V7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="14"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="2"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="4"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="4"/>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="2"/>
+      <c r="AF7" s="4"/>
       <c r="AG7" s="2"/>
-      <c r="AI7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="14"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="4"/>
+      <c r="AK7" s="2"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="2"/>
+      <c r="AM7" s="4"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="4"/>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="4"/>
-      <c r="AQ7" s="2"/>
+      <c r="AQ7" s="4"/>
       <c r="AR7" s="2"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-    </row>
-    <row r="8" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="14"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+    </row>
+    <row r="8" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="14"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="4"/>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="2"/>
+      <c r="AB8" s="4"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="2"/>
+      <c r="AF8" s="4"/>
       <c r="AG8" s="2"/>
-      <c r="AI8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="14"/>
       <c r="AJ8" s="2"/>
-      <c r="AK8" s="4"/>
+      <c r="AK8" s="2"/>
       <c r="AL8" s="4"/>
-      <c r="AM8" s="2"/>
+      <c r="AM8" s="4"/>
       <c r="AN8" s="2"/>
-      <c r="AO8" s="4"/>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="4"/>
-      <c r="AQ8" s="2"/>
+      <c r="AQ8" s="4"/>
       <c r="AR8" s="2"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-    </row>
-    <row r="9" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="14"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+    </row>
+    <row r="9" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1418,7 +1496,8 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1428,7 +1507,8 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="14"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -1438,7 +1518,8 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
-      <c r="AI9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="14"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
@@ -1448,9 +1529,11 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
-    </row>
-    <row r="10" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="14"/>
+    </row>
+    <row r="10" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1460,7 +1543,8 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1470,7 +1554,8 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="X10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="14"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -1480,7 +1565,8 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
-      <c r="AI10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="14"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
@@ -1490,9 +1576,11 @@
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
-    </row>
-    <row r="11" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="14"/>
+    </row>
+    <row r="11" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1502,7 +1590,8 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="14"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1512,7 +1601,8 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="14"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -1522,7 +1612,8 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
-      <c r="AI11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="14"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
@@ -1532,9 +1623,11 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
-    </row>
-    <row r="12" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="14"/>
+    </row>
+    <row r="12" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1544,7 +1637,8 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1554,7 +1648,8 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="14"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -1564,7 +1659,8 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
-      <c r="AI12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="14"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
@@ -1574,81 +1670,133 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
-    </row>
-    <row r="14" spans="2:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="14"/>
+    </row>
+    <row r="13" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="14"/>
+    </row>
+    <row r="14" spans="2:50" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="13"/>
+      <c r="C14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="M14" s="13" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="X14" s="13" t="s">
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AI14" s="13" t="s">
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AT14" s="10" t="s">
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="13"/>
+      <c r="AV14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AU14" s="11" t="s">
+      <c r="AW14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AV14" s="11" t="s">
+      <c r="AX14" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
+    <row r="15" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>100</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1665,20 +1813,21 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14"/>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>5</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -1695,9 +1844,10 @@
       <c r="V15" s="2">
         <v>0</v>
       </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="14"/>
       <c r="Y15" s="2">
         <v>0</v>
       </c>
@@ -1725,20 +1875,21 @@
       <c r="AG15" s="2">
         <v>0</v>
       </c>
-      <c r="AI15" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="14"/>
       <c r="AJ15" s="2">
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="2">
         <v>5</v>
       </c>
       <c r="AM15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN15" s="2">
         <v>0</v>
@@ -1755,31 +1906,33 @@
       <c r="AR15" s="2">
         <v>0</v>
       </c>
-      <c r="AT15" s="7">
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="14"/>
+      <c r="AV15" s="7">
         <v>250</v>
       </c>
-      <c r="AU15" s="9" t="s">
+      <c r="AW15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AV15" s="9" t="s">
+      <c r="AX15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
+    <row r="16" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>50</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -1796,20 +1949,21 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14"/>
       <c r="N16" s="2">
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
         <v>100</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -1826,9 +1980,10 @@
       <c r="V16" s="2">
         <v>0</v>
       </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14"/>
       <c r="Y16" s="2">
         <v>0</v>
       </c>
@@ -1856,20 +2011,21 @@
       <c r="AG16" s="2">
         <v>0</v>
       </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="14"/>
       <c r="AJ16" s="2">
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="2">
         <v>50</v>
       </c>
       <c r="AM16" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -1886,20 +2042,22 @@
       <c r="AR16" s="2">
         <v>0</v>
       </c>
-      <c r="AT16" s="7">
+      <c r="AS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="14"/>
+      <c r="AV16" s="7">
         <v>-1000</v>
       </c>
-      <c r="AU16" s="9" t="s">
+      <c r="AW16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AV16" s="9" t="s">
+      <c r="AX16" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
+    <row r="17" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
       <c r="C17" s="2">
         <v>0</v>
       </c>
@@ -1927,20 +2085,21 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14"/>
       <c r="N17" s="2">
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
         <v>50</v>
       </c>
       <c r="Q17" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -1957,20 +2116,21 @@
       <c r="V17" s="2">
         <v>0</v>
       </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14"/>
       <c r="Y17" s="2">
         <v>0</v>
       </c>
       <c r="Z17" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="2">
         <v>50</v>
       </c>
       <c r="AB17" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC17" s="2">
         <v>0</v>
@@ -1987,20 +2147,21 @@
       <c r="AG17" s="2">
         <v>0</v>
       </c>
-      <c r="AI17" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="14"/>
       <c r="AJ17" s="2">
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="2">
         <v>100</v>
       </c>
       <c r="AM17" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN17" s="2">
         <v>0</v>
@@ -2017,20 +2178,22 @@
       <c r="AR17" s="2">
         <v>0</v>
       </c>
-      <c r="AT17" s="7">
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="14"/>
+      <c r="AV17" s="7">
         <v>-250</v>
       </c>
-      <c r="AU17" s="9" t="s">
+      <c r="AW17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AV17" s="9" t="s">
+      <c r="AX17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
+    <row r="18" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
       <c r="C18" s="2">
         <v>0</v>
       </c>
@@ -2058,9 +2221,10 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14"/>
       <c r="N18" s="2">
         <v>0</v>
       </c>
@@ -2088,20 +2252,21 @@
       <c r="V18" s="2">
         <v>0</v>
       </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="14"/>
       <c r="Y18" s="2">
         <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="2">
         <v>100</v>
       </c>
       <c r="AB18" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC18" s="2">
         <v>0</v>
@@ -2118,9 +2283,10 @@
       <c r="AG18" s="2">
         <v>0</v>
       </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="14"/>
       <c r="AJ18" s="2">
         <v>0</v>
       </c>
@@ -2148,120 +2314,134 @@
       <c r="AR18" s="2">
         <v>0</v>
       </c>
-      <c r="AT18" s="7">
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="14"/>
+      <c r="AV18" s="7">
         <v>1000</v>
       </c>
-      <c r="AU18" s="9" t="s">
+      <c r="AW18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV18" s="9" t="s">
+      <c r="AX18" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+    <row r="19" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="14"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="2"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="4"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="4"/>
       <c r="V19" s="2"/>
-      <c r="X19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="14"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="4"/>
+      <c r="Z19" s="2"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="4"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="4"/>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="4"/>
       <c r="AG19" s="2"/>
-      <c r="AI19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="14"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="4"/>
+      <c r="AK19" s="2"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="2"/>
+      <c r="AM19" s="4"/>
       <c r="AN19" s="2"/>
-      <c r="AO19" s="4"/>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="4"/>
-      <c r="AQ19" s="2"/>
+      <c r="AQ19" s="4"/>
       <c r="AR19" s="2"/>
-      <c r="AT19" s="7">
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="14"/>
+      <c r="AV19" s="7">
         <v>50</v>
       </c>
-      <c r="AU19" s="9" t="s">
+      <c r="AW19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AV19" s="9" t="s">
+      <c r="AX19" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+    <row r="20" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="4"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="2"/>
+      <c r="U20" s="4"/>
       <c r="V20" s="2"/>
-      <c r="X20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="14"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="4"/>
+      <c r="Z20" s="2"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="4"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="4"/>
       <c r="AG20" s="2"/>
-      <c r="AI20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="14"/>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="4"/>
+      <c r="AK20" s="2"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="2"/>
+      <c r="AM20" s="4"/>
       <c r="AN20" s="2"/>
-      <c r="AO20" s="4"/>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="4"/>
-      <c r="AQ20" s="2"/>
+      <c r="AQ20" s="4"/>
       <c r="AR20" s="2"/>
-      <c r="AT20" s="7">
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="14"/>
+      <c r="AV20" s="7">
         <v>100</v>
       </c>
-      <c r="AU20" s="9" t="s">
+      <c r="AW20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AV20" s="9" t="s">
+      <c r="AX20" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+    <row r="21" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2271,7 +2451,8 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2281,7 +2462,8 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="X21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="14"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -2291,7 +2473,8 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AI21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="14"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
@@ -2301,18 +2484,20 @@
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
-      <c r="AT21" s="7">
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="14"/>
+      <c r="AV21" s="7">
         <v>500</v>
       </c>
-      <c r="AU21" s="9" t="s">
+      <c r="AW21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AV21" s="9" t="s">
+      <c r="AX21" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+    <row r="22" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2322,7 +2507,8 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2332,7 +2518,8 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="14"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
@@ -2342,7 +2529,8 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AI22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="14"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
@@ -2352,9 +2540,20 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
-    </row>
-    <row r="23" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="14"/>
+      <c r="AV22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX22" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2364,7 +2563,8 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="14"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2374,7 +2574,8 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="14"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -2384,7 +2585,8 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="14"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -2394,9 +2596,11 @@
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
-    </row>
-    <row r="24" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="14"/>
+    </row>
+    <row r="24" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2406,7 +2610,8 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="14"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2416,7 +2621,8 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="14"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
@@ -2426,7 +2632,8 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AI24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="14"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
@@ -2436,138 +2643,137 @@
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
-      <c r="AT24" s="12">
-        <v>25</v>
-      </c>
-      <c r="AU24" s="9" t="s">
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="14"/>
+      <c r="AV24" s="12">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AV24" s="9" t="s">
+      <c r="AX24" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:48" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B26" s="13" t="s">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="14"/>
+    </row>
+    <row r="27" spans="2:50" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="M26" s="13" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="X26" s="13" t="s">
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AI26" s="13" t="s">
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AT26" s="10" t="s">
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="18"/>
+      <c r="AV27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AU26" s="11" t="s">
+      <c r="AW27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AV26" s="11" t="s">
+      <c r="AX27" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
-      <c r="AT27" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV27" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2575,7 +2781,8 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2585,7 +2792,8 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="X28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="16"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -2595,7 +2803,8 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-      <c r="AI28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="16"/>
       <c r="AJ28" s="2"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
@@ -2605,24 +2814,26 @@
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
-      <c r="AT28" s="7">
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="16"/>
+      <c r="AV28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AU28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV28" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="AX28" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2630,7 +2841,8 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2640,7 +2852,8 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="X29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="16"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -2650,7 +2863,8 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AI29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="16"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
@@ -2660,24 +2874,26 @@
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
-      <c r="AT29" s="7">
-        <v>10</v>
-      </c>
-      <c r="AU29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV29" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="16"/>
+      <c r="AV29" s="7">
+        <v>5</v>
+      </c>
+      <c r="AW29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX29" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
       <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2685,33 +2901,19 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="16"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -2721,7 +2923,8 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AI30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="16"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
@@ -2731,153 +2934,199 @@
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
-      <c r="AT30" s="7">
-        <v>15</v>
-      </c>
-      <c r="AU30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV30" s="9" t="s">
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="16"/>
+      <c r="AV30" s="7">
+        <v>10</v>
+      </c>
+      <c r="AW30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX30" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+    <row r="31" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="2"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
-      <c r="AI31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="16"/>
       <c r="AJ31" s="2"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="4"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
-      <c r="AT31" s="7">
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="16"/>
+      <c r="AV31" s="7">
+        <v>15</v>
+      </c>
+      <c r="AW31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX31" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="4"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="16"/>
+      <c r="AV32" s="7">
         <v>20</v>
       </c>
-      <c r="AU31" s="9" t="s">
+      <c r="AW32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AV31" s="9" t="s">
+      <c r="AX32" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:48" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="2"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="4"/>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-    </row>
-    <row r="33" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+    <row r="33" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
       <c r="V33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="16"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
       <c r="AG33" s="2"/>
-      <c r="AI33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="16"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
       <c r="AR33" s="2"/>
-    </row>
-    <row r="34" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="16"/>
+    </row>
+    <row r="34" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2887,7 +3136,8 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -2897,7 +3147,8 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="16"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
@@ -2907,7 +3158,8 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
-      <c r="AI34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="16"/>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
@@ -2917,9 +3169,11 @@
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
-    </row>
-    <row r="35" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="16"/>
+    </row>
+    <row r="35" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2929,7 +3183,8 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -2939,7 +3194,8 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="16"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -2949,7 +3205,8 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
-      <c r="AI35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="16"/>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2"/>
@@ -2959,9 +3216,11 @@
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
-    </row>
-    <row r="36" spans="2:44" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="16"/>
+    </row>
+    <row r="36" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2971,7 +3230,8 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -2981,7 +3241,8 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="X36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="16"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -2991,7 +3252,8 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
-      <c r="AI36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="16"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
@@ -3001,24 +3263,120 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="16"/>
+    </row>
+    <row r="37" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="16"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="M26:V26"/>
-    <mergeCell ref="X26:AG26"/>
-    <mergeCell ref="AI26:AR26"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="X14:AG14"/>
-    <mergeCell ref="AI2:AR2"/>
-    <mergeCell ref="AI14:AR14"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="M2:V2"/>
-    <mergeCell ref="M14:V14"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="N27:W27"/>
+    <mergeCell ref="Y27:AH27"/>
+    <mergeCell ref="AJ27:AS27"/>
+    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="Y14:AH14"/>
+    <mergeCell ref="AJ2:AS2"/>
+    <mergeCell ref="AJ14:AS14"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="N2:W2"/>
+    <mergeCell ref="N14:W14"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AR43">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="B1:AS44">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3027,31 +3385,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:XFD36">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="A28:XFD37">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"SP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"GE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"MA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"MI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"BO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"FL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT15:AT23">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="AV15:AV23">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3062,8 +3420,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT27:AT31">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="AV28:AV32">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3072,8 +3430,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT3:AT12">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="AV3:AV12">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100"/>
@@ -3082,6 +3440,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AV1:AV1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/ExcelBot.Runtime/strategy.xlsx
+++ b/ExcelBot.Runtime/strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\prive\infinibattle-2023-excel-bot\ExcelBot.Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93370583-749C-497B-91B7-BAA3A0F23324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FD3BCD-21D4-47A4-9F78-E8C01341038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{384E99EF-41B3-4078-AF7F-40BB6BDCDBD9}"/>
   </bookViews>
@@ -58,18 +58,6 @@
   </si>
   <si>
     <t>Beschrijving</t>
-  </si>
-  <si>
-    <t>Fixed Start 1</t>
-  </si>
-  <si>
-    <t>Fixed Start 4</t>
-  </si>
-  <si>
-    <t>Fixed Start 3</t>
-  </si>
-  <si>
-    <t>Fixed Start 2</t>
   </si>
   <si>
     <t>FL</t>
@@ -215,6 +203,18 @@
   </si>
   <si>
     <t>Tellen "sprongen" van scouts naar potentiele flags extra zwaar (TRUE of FALSE)</t>
+  </si>
+  <si>
+    <t>Fixed Start Option 1</t>
+  </si>
+  <si>
+    <t>Fixed Start Option 2</t>
+  </si>
+  <si>
+    <t>Fixed Start Option 3</t>
+  </si>
+  <si>
+    <t>Expected location of opponent FL</t>
   </si>
 </sst>
 </file>
@@ -398,16 +398,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFF2D608"/>
@@ -456,6 +446,16 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE039DA3-4AB8-44E2-839E-924A5A2C703B}">
   <dimension ref="B2:AX38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV24" sqref="AV24"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,10 +996,10 @@
         <v>50</v>
       </c>
       <c r="AW3" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AX3" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
       <c r="AS14" s="20"/>
       <c r="AT14" s="13"/>
       <c r="AV14" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AW14" s="11" t="s">
         <v>9</v>
@@ -1914,10 +1914,10 @@
         <v>250</v>
       </c>
       <c r="AW15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX15" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="AX15" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,10 +2050,10 @@
         <v>-1000</v>
       </c>
       <c r="AW16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX16" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="AX16" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2186,10 +2186,10 @@
         <v>-250</v>
       </c>
       <c r="AW17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX17" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="AX17" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,13 +2319,13 @@
       </c>
       <c r="AT18" s="14"/>
       <c r="AV18" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AW18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX18" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="AX18" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,10 +2378,10 @@
         <v>50</v>
       </c>
       <c r="AW19" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AX19" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,10 +2434,10 @@
         <v>100</v>
       </c>
       <c r="AW20" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AX20" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2487,13 +2487,13 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="14"/>
       <c r="AV21" s="7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AW21" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AX21" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2546,10 +2546,10 @@
         <v>1</v>
       </c>
       <c r="AW22" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AX22" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2649,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="AW24" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AX24" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:50" x14ac:dyDescent="0.25">
@@ -2705,7 +2705,7 @@
     <row r="27" spans="2:50" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -2718,7 +2718,7 @@
       <c r="L27" s="19"/>
       <c r="M27" s="18"/>
       <c r="N27" s="19" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
@@ -2731,7 +2731,7 @@
       <c r="W27" s="19"/>
       <c r="X27" s="18"/>
       <c r="Y27" s="19" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
@@ -2744,7 +2744,7 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="19" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="AK27" s="19"/>
       <c r="AL27" s="19"/>
@@ -2757,10 +2757,10 @@
       <c r="AS27" s="19"/>
       <c r="AT27" s="18"/>
       <c r="AV27" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AW27" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AX27" s="11" t="s">
         <v>10</v>
@@ -2769,10 +2769,10 @@
     <row r="28" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
       <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2823,16 +2823,16 @@
         <v>5</v>
       </c>
       <c r="AX28" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2880,19 +2880,19 @@
         <v>5</v>
       </c>
       <c r="AW29" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AX29" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2943,16 +2943,16 @@
         <v>2</v>
       </c>
       <c r="AX30" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="16"/>
       <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2965,28 +2965,28 @@
       <c r="M31" s="16"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="16"/>
@@ -3019,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="AX31" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>3</v>
       </c>
       <c r="AX32" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,16 +3160,36 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="16"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
+      <c r="AJ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>10</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>0</v>
+      </c>
       <c r="AT34" s="16"/>
     </row>
     <row r="35" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,16 +3227,36 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="16"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
-      <c r="AP35" s="2"/>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="2"/>
+      <c r="AJ35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>10</v>
+      </c>
       <c r="AT35" s="16"/>
     </row>
     <row r="36" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3254,16 +3294,36 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="16"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-      <c r="AL36" s="2"/>
-      <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
-      <c r="AO36" s="2"/>
-      <c r="AP36" s="2"/>
-      <c r="AQ36" s="2"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
+      <c r="AJ36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>50</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>50</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>50</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>50</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>10</v>
+      </c>
       <c r="AT36" s="16"/>
     </row>
     <row r="37" spans="2:46" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,16 +3361,36 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="16"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
-      <c r="AN37" s="2"/>
-      <c r="AO37" s="2"/>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
+      <c r="AJ37" s="2">
+        <v>50</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>100</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>50</v>
+      </c>
       <c r="AT37" s="16"/>
     </row>
     <row r="38" spans="2:46" x14ac:dyDescent="0.25">
@@ -3386,25 +3466,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD37">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"SP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"GE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"MA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"MI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"BO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"FL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3441,7 +3521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV1:AV1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExcelBot.Runtime/strategy.xlsx
+++ b/ExcelBot.Runtime/strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\prive\infinibattle-2023-excel-bot\ExcelBot.Runtime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FD3BCD-21D4-47A4-9F78-E8C01341038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD426A-8916-46B5-A36D-2DD7F5096E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{384E99EF-41B3-4078-AF7F-40BB6BDCDBD9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Flag</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Aantal bonuspunten voor een zet waarmee je dichterbij een potentiele Flag komt</t>
   </si>
   <si>
-    <t>Scout-bonus voor vorige punt</t>
-  </si>
-  <si>
     <t>Tellen "sprongen" van scouts naar potentiele flags extra zwaar (TRUE of FALSE)</t>
   </si>
   <si>
@@ -215,6 +212,21 @@
   </si>
   <si>
     <t>Expected location of opponent FL</t>
+  </si>
+  <si>
+    <t>Scout-bonus richting flag</t>
+  </si>
+  <si>
+    <t>Aantal punten voor een zet van een stuk dat nog nooit eerder bewogen heeft</t>
+  </si>
+  <si>
+    <t>Aantal punten voor een zet van een stuk waarvan tegenstander de rank niet kent</t>
+  </si>
+  <si>
+    <t>Nog-nooit-bewogen stuk</t>
+  </si>
+  <si>
+    <t>Nog-niet-onthuld stuk</t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -459,11 +481,188 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2D608"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF322500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF8747"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC50F0B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5B68F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2D608"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF322500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF8747"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC50F0B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5B68F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2D608"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF322500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEF8747"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC50F0B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF5B68F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFBE5"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFE5EAE0"/>
       <color rgb="FFF2D608"/>
@@ -472,7 +671,6 @@
       <color rgb="FFF19861"/>
       <color rgb="FFF5B68F"/>
       <color rgb="FFF29E6A"/>
-      <color rgb="FFF5B68B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -785,18 +983,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE039DA3-4AB8-44E2-839E-924A5A2C703B}">
   <dimension ref="B2:AX38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AV18" sqref="AV18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="12" width="4.28515625" style="1" customWidth="1"/>
     <col min="14" max="23" width="4.28515625" style="1" customWidth="1"/>
     <col min="25" max="34" width="4.28515625" style="1" customWidth="1"/>
     <col min="36" max="45" width="4.28515625" style="1" customWidth="1"/>
     <col min="46" max="46" width="3.5703125" customWidth="1"/>
+    <col min="47" max="47" width="3.85546875" customWidth="1"/>
     <col min="48" max="48" width="16" style="7" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="92.140625" style="9" customWidth="1"/>
@@ -1436,7 +1636,7 @@
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
     </row>
-    <row r="8" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1482,8 +1682,15 @@
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="14"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
+      <c r="AV8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX8" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
@@ -1531,6 +1738,15 @@
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="14"/>
+      <c r="AV9" s="12">
+        <v>5</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX9" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
@@ -1578,6 +1794,15 @@
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="14"/>
+      <c r="AV10" s="7">
+        <v>250</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX10" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
@@ -1625,6 +1850,15 @@
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="14"/>
+      <c r="AV11" s="7">
+        <v>-2000</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX11" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
@@ -1672,6 +1906,15 @@
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
       <c r="AT12" s="14"/>
+      <c r="AV12" s="7">
+        <v>-250</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX12" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
@@ -1719,6 +1962,15 @@
       <c r="AR13" s="15"/>
       <c r="AS13" s="15"/>
       <c r="AT13" s="14"/>
+      <c r="AV13" s="7">
+        <v>500</v>
+      </c>
+      <c r="AW13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX13" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:50" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
@@ -1774,14 +2026,14 @@
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
       <c r="AT14" s="13"/>
-      <c r="AV14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AW14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX14" s="11" t="s">
-        <v>10</v>
+      <c r="AV14" s="7">
+        <v>50</v>
+      </c>
+      <c r="AW14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AX14" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1911,13 +2163,13 @@
       </c>
       <c r="AT15" s="14"/>
       <c r="AV15" s="7">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="AW15" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AX15" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2047,13 +2299,13 @@
       </c>
       <c r="AT16" s="14"/>
       <c r="AV16" s="7">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
       <c r="AW16" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AX16" s="9" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,14 +2434,14 @@
         <v>0</v>
       </c>
       <c r="AT17" s="14"/>
-      <c r="AV17" s="7">
-        <v>-250</v>
+      <c r="AV17" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="AW17" s="9" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="AX17" s="9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,13 +2571,13 @@
       </c>
       <c r="AT18" s="14"/>
       <c r="AV18" s="7">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="AW18" s="9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AX18" s="9" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,13 +2627,13 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="14"/>
       <c r="AV19" s="7">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="AW19" s="9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AX19" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2430,15 +2682,6 @@
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="14"/>
-      <c r="AV20" s="7">
-        <v>100</v>
-      </c>
-      <c r="AW20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AX20" s="9" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="21" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
@@ -2486,15 +2729,6 @@
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
       <c r="AT21" s="14"/>
-      <c r="AV21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="AW21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX21" s="9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="22" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
@@ -2542,15 +2776,6 @@
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="14"/>
-      <c r="AV22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX22" s="9" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="23" spans="2:50" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -2645,15 +2870,6 @@
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="14"/>
-      <c r="AV24" s="12">
-        <v>5</v>
-      </c>
-      <c r="AW24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX24" s="9" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="25" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
@@ -2705,7 +2921,7 @@
     <row r="27" spans="2:50" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -2718,7 +2934,7 @@
       <c r="L27" s="19"/>
       <c r="M27" s="18"/>
       <c r="N27" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
@@ -2731,7 +2947,7 @@
       <c r="W27" s="19"/>
       <c r="X27" s="18"/>
       <c r="Y27" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
@@ -2744,7 +2960,7 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK27" s="19"/>
       <c r="AL27" s="19"/>
@@ -3161,34 +3377,34 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL34" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AM34" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AN34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AQ34" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AR34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT34" s="16"/>
     </row>
@@ -3228,34 +3444,34 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="16"/>
       <c r="AJ35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AK35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AL35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AM35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AN35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AO35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AP35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AQ35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AR35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AS35" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AT35" s="16"/>
     </row>
@@ -3295,10 +3511,10 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="16"/>
       <c r="AJ36" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AK36" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AL36" s="2">
         <v>50</v>
@@ -3307,10 +3523,10 @@
         <v>50</v>
       </c>
       <c r="AN36" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AO36" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AP36" s="2">
         <v>50</v>
@@ -3319,10 +3535,10 @@
         <v>50</v>
       </c>
       <c r="AR36" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AS36" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AT36" s="16"/>
     </row>
@@ -3365,7 +3581,7 @@
         <v>50</v>
       </c>
       <c r="AK37" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AL37" s="2">
         <v>100</v>
@@ -3374,10 +3590,10 @@
         <v>100</v>
       </c>
       <c r="AN37" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AO37" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AP37" s="2">
         <v>100</v>
@@ -3386,7 +3602,7 @@
         <v>100</v>
       </c>
       <c r="AR37" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AS37" s="2">
         <v>50</v>
@@ -3466,36 +3682,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD37">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"SP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"GE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"MA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"MI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"BO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"FL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV15:AV23">
+  <conditionalFormatting sqref="AV10:AV25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFFFCC"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -3503,14 +3719,14 @@
   <conditionalFormatting sqref="AV28:AV32">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFE5EAE0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV3:AV12">
+  <conditionalFormatting sqref="AV3:AV7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3520,8 +3736,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV1:AV1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="AV25:AV1048576 AV1:AV18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
